--- a/invoice report.xlsx
+++ b/invoice report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitalibothe\Desktop\InvoiceProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitalibothe\Desktop\Sampleproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6712A-16F0-43DE-8D7A-60AD32CF5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B0333-202D-48DF-A4B0-573600F1F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2808" windowWidth="15480" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vendor Name</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>GST Number</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Shruti Patil</t>
+  </si>
+  <si>
+    <t>Aditi Varma</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +469,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
